--- a/Project/roadmap.xlsx
+++ b/Project/roadmap.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="61">
   <si>
     <t>Название и дата</t>
   </si>
@@ -189,6 +189,15 @@
   </si>
   <si>
     <t>Имеется два вида ботов, покадровая прорисовка эффектов.</t>
+  </si>
+  <si>
+    <t>Имеется новый вид врага - стреляющий.</t>
+  </si>
+  <si>
+    <t>Поднимаемые бонусы.</t>
+  </si>
+  <si>
+    <t>Анимация.</t>
   </si>
 </sst>
 </file>
@@ -609,10 +618,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -891,7 +900,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -902,7 +911,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -961,8 +970,8 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="33">
-      <c r="A5" s="36" t="s">
+    <row r="5" spans="1:4" ht="16.5">
+      <c r="A5" s="35" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="33" t="s">
@@ -976,37 +985,43 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="15">
-      <c r="A6" s="36"/>
+      <c r="A6" s="35"/>
       <c r="B6" s="30" t="s">
         <v>51</v>
       </c>
       <c r="C6" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="30"/>
+      <c r="D6" s="30" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="30">
-      <c r="A7" s="36"/>
+      <c r="A7" s="35"/>
       <c r="B7" s="30" t="s">
         <v>52</v>
       </c>
       <c r="C7" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="30"/>
+      <c r="D7" s="30" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="15">
-      <c r="A8" s="36"/>
+      <c r="A8" s="35"/>
       <c r="B8" s="30" t="s">
         <v>53</v>
       </c>
       <c r="C8" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="30"/>
-    </row>
-    <row r="9" spans="1:4" ht="33">
-      <c r="A9" s="36"/>
+      <c r="D8" s="30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16.5">
+      <c r="A9" s="35"/>
       <c r="B9" s="33" t="s">
         <v>43</v>
       </c>
@@ -1018,7 +1033,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1">
-      <c r="A10" s="36"/>
+      <c r="A10" s="35"/>
       <c r="B10" s="31"/>
       <c r="C10" s="31" t="s">
         <v>50</v>
@@ -1193,7 +1208,7 @@
       <c r="L4" s="14"/>
     </row>
     <row r="5" spans="1:12" ht="63.75" customHeight="1">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="36" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="15" t="s">
@@ -1227,7 +1242,7 @@
       <c r="L5" s="18"/>
     </row>
     <row r="6" spans="1:12" ht="74.650000000000006" customHeight="1">
-      <c r="A6" s="35"/>
+      <c r="A6" s="36"/>
       <c r="B6" s="15" t="s">
         <v>14</v>
       </c>
@@ -1248,7 +1263,7 @@
       <c r="L6" s="18"/>
     </row>
     <row r="7" spans="1:12" ht="49.15" customHeight="1">
-      <c r="A7" s="35"/>
+      <c r="A7" s="36"/>
       <c r="B7" s="15" t="s">
         <v>15</v>
       </c>
@@ -1268,7 +1283,7 @@
       <c r="L7" s="18"/>
     </row>
     <row r="8" spans="1:12" ht="46.9" customHeight="1">
-      <c r="A8" s="35"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="15" t="s">
         <v>16</v>
       </c>
@@ -1285,7 +1300,7 @@
       <c r="L8" s="18"/>
     </row>
     <row r="9" spans="1:12" ht="35.85" customHeight="1">
-      <c r="A9" s="35"/>
+      <c r="A9" s="36"/>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
       <c r="E9" s="18"/>
@@ -1298,7 +1313,7 @@
       <c r="L9" s="18"/>
     </row>
     <row r="10" spans="1:12" ht="43.35" customHeight="1">
-      <c r="A10" s="35"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="20"/>
       <c r="C10" s="21"/>
       <c r="E10" s="22"/>
